--- a/Client_Airport.xlsx
+++ b/Client_Airport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yechixia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FEC4ED-6EFB-9746-A9F3-66D7C3EF8841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97EA07-EFAE-A441-B911-577C97949259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="2340" windowWidth="27900" windowHeight="16940" xr2:uid="{7AAF7700-CC05-DC41-A3A4-A8D9955785B6}"/>
+    <workbookView xWindow="13280" yWindow="1520" windowWidth="28800" windowHeight="16480" xr2:uid="{7AAF7700-CC05-DC41-A3A4-A8D9955785B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +356,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,16 +383,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -399,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +746,7 @@
   <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -754,7 +761,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -762,647 +769,647 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>5</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -1410,7 +1417,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -1418,7 +1425,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -1426,7 +1433,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -1434,7 +1441,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -1442,7 +1449,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -1450,7 +1457,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -1458,7 +1465,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -1466,7 +1473,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -1474,7 +1481,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -1482,7 +1489,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -1490,7 +1497,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -1498,7 +1505,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -1506,7 +1513,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -1514,7 +1521,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -1522,7 +1529,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>6</v>
